--- a/carga/ANÁLISIS FEBRERO 2021.xlsx
+++ b/carga/ANÁLISIS FEBRERO 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgonzalez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORNELA\Documents\SISTEMA BARLOVENTO SRL\ANÁLISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C494D61-191D-5E46-B3B8-3869BC74C106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D60E7C1-D5B6-478A-B6DA-519D2D9773A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Muertos en el Período</t>
   </si>
   <si>
-    <t>Estadia Promedio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cabezas Trazadas Salidas ( No incluye Muertos ) </t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Kilos Ganados Periodo -Trazados</t>
   </si>
   <si>
-    <t>ADPV Ganancia Diaria en el Periodo</t>
-  </si>
-  <si>
     <t>Total Cabezas Faenadas</t>
   </si>
   <si>
@@ -147,14 +141,20 @@
     <t>Kilos</t>
   </si>
   <si>
-    <t>Período 01-12-2020 al 31-02-2021</t>
+    <t>Estadía Promedio</t>
+  </si>
+  <si>
+    <t>ADPV Ganancia Díaria en el Periodo</t>
+  </si>
+  <si>
+    <t>PERÍODO 01-02-2021 AL 28-02-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,19 +166,25 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -208,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -222,13 +228,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,462 +530,445 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="51.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="51.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.5" style="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="51.5" style="1"/>
+    <col min="1" max="1" width="51.5546875" style="1"/>
+    <col min="2" max="2" width="16.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="51.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2.0223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9">
+        <v>123.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9">
+        <v>12.7806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9">
+        <v>20.0642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9">
+        <v>9.6245999999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="9">
+        <v>6.1307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9">
+        <v>6.3661000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="9">
+        <v>167.60300000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9">
+        <v>195.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="9">
+        <v>357.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="9">
+        <v>161.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2.0223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4">
-        <v>137.51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4">
-        <v>12.7148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4">
-        <v>19.9633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4">
-        <v>10.815099999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4">
-        <v>6.8883000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4">
-        <v>7.1528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="B32" s="9">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="9">
         <v>458</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4">
-        <v>167.60300000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="4">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="4">
-        <v>195.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="4">
-        <v>357.31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4">
-        <v>161.41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="4">
-        <v>0.96299999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="B34" s="9">
+        <v>87926.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="4">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="B35" s="9">
+        <v>25657079.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="5">
-        <v>78887.47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="B36" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="5">
-        <v>22969636.52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="B37" s="9">
+        <v>169.24449999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="B38" s="9">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="4">
-        <v>168.8784</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="B39" s="9">
+        <v>127.73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="4">
-        <v>9.5399999999999991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="B40" s="9">
+        <v>129.83000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="4">
-        <v>142.79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="B41" s="9">
+        <v>39.414499999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="4">
-        <v>144.88999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="C45" s="4">
+        <v>29294.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="4">
-        <v>23.988399999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="4">
-        <v>29149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C50" s="4">
-        <v>270171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>274600.93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="10"/>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="10"/>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="10"/>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="10"/>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="10"/>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="10"/>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="10"/>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/carga/ANÁLISIS FEBRERO 2021.xlsx
+++ b/carga/ANÁLISIS FEBRERO 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORNELA\Documents\SISTEMA BARLOVENTO SRL\ANÁLISIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgonzalez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D60E7C1-D5B6-478A-B6DA-519D2D9773A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C494D61-191D-5E46-B3B8-3869BC74C106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,9 @@
     <t>Muertos en el Período</t>
   </si>
   <si>
+    <t>Estadia Promedio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cabezas Trazadas Salidas ( No incluye Muertos ) </t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>Kilos Ganados Periodo -Trazados</t>
   </si>
   <si>
+    <t>ADPV Ganancia Diaria en el Periodo</t>
+  </si>
+  <si>
     <t>Total Cabezas Faenadas</t>
   </si>
   <si>
@@ -141,20 +147,14 @@
     <t>Kilos</t>
   </si>
   <si>
-    <t>Estadía Promedio</t>
-  </si>
-  <si>
-    <t>ADPV Ganancia Díaria en el Periodo</t>
-  </si>
-  <si>
-    <t>PERÍODO 01-02-2021 AL 28-02-2021</t>
+    <t>Período 01-12-2020 al 31-02-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,25 +166,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -214,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -228,24 +222,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,445 +513,462 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="51.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="51.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" style="1"/>
-    <col min="2" max="2" width="16.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="51.5546875" style="1"/>
+    <col min="1" max="1" width="51.5" style="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="51.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.0223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>137.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>12.7148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>19.9633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10.815099999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <v>6.8883000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <v>7.1528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
+        <v>167.60300000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4">
+        <v>195.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <v>357.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4">
+        <v>161.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5">
+        <v>78887.47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5">
+        <v>22969636.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4">
+        <v>168.8784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4">
+        <v>142.79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4">
+        <v>144.88999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4">
+        <v>23.988399999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2.0223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9">
-        <v>123.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9">
-        <v>12.7806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9">
-        <v>20.0642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="9">
-        <v>9.6245999999999992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="9">
-        <v>6.1307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9">
-        <v>6.3661000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="9">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="9">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="C45" s="4">
+        <v>29149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="9">
-        <v>167.60300000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="9">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="9">
-        <v>195.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="9">
-        <v>357.31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="9">
-        <v>161.41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="9">
-        <v>0.96299999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="9">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="9">
-        <v>87926.65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="9">
-        <v>25657079.43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="9">
-        <v>169.24449999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="9">
-        <v>8.42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="9">
-        <v>127.73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="9">
-        <v>129.83000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="9">
-        <v>39.414499999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="4">
-        <v>29294.03</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="5"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5"/>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="C50" s="4">
-        <v>274600.93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>270171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="10"/>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="10"/>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="10"/>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="10"/>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="10"/>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="10"/>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="10"/>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="10"/>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="10"/>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="10"/>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" s="10"/>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="B71" s="10"/>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="10"/>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" s="10"/>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="10"/>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="B75" s="10"/>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="10"/>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="10"/>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="10"/>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
-      <c r="B79" s="10"/>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
-      <c r="B80" s="10"/>
+      <c r="B80" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
